--- a/Data/EC/NIT-9018650405.xlsx
+++ b/Data/EC/NIT-9018650405.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E4625BC-B705-416E-AA04-CC8B62F54B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE12AA3-5BCD-4778-A9FC-100F1A99AEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C52E0ED1-9FF3-4971-AFD6-9EBCC4CFD2F1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{28771A8D-8160-40E9-A824-C740621A3095}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,94 +65,46 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143361718</t>
+  </si>
+  <si>
+    <t>WAILYS DEL CARMEN HERNANDEZ CASTRO</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>72180665</t>
+  </si>
+  <si>
+    <t>ELIAS ENRIQUE BARRAZA CONSUEGRA</t>
+  </si>
+  <si>
     <t>1050946066</t>
   </si>
   <si>
     <t>JESUS REMBERTO ALVAREZ RAMOZ</t>
   </si>
   <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>9168928</t>
+  </si>
+  <si>
+    <t>ARQUIMEDES VELAIDES PEREZ</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>1047387695</t>
-  </si>
-  <si>
-    <t>JONNATAN JAVIER CERVANTES BOHORQUEZ</t>
-  </si>
-  <si>
-    <t>1047373788</t>
-  </si>
-  <si>
-    <t>YESID MONTALVO DAVILA</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>85464467</t>
-  </si>
-  <si>
-    <t>JHON JAIRO SABOGAL LOBO</t>
-  </si>
-  <si>
-    <t>1143361718</t>
-  </si>
-  <si>
-    <t>WAILYS DEL CARMEN HERNANDEZ CASTRO</t>
-  </si>
-  <si>
-    <t>1124849136</t>
-  </si>
-  <si>
-    <t>SANDRA SURLEY ANACONA GUTIERREZ</t>
-  </si>
-  <si>
-    <t>92228435</t>
-  </si>
-  <si>
-    <t>PAULO CESAR DE HORTA SILGADO</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>72180665</t>
-  </si>
-  <si>
-    <t>ELIAS ENRIQUE BARRAZA CONSUEGRA</t>
-  </si>
-  <si>
-    <t>9168928</t>
-  </si>
-  <si>
-    <t>ARQUIMEDES VELAIDES PEREZ</t>
-  </si>
-  <si>
-    <t>7631984</t>
-  </si>
-  <si>
-    <t>RENSE RENET MOYA VILLALBA</t>
-  </si>
-  <si>
-    <t>12624938</t>
-  </si>
-  <si>
-    <t>JOSE DE JESUS RIVERA ARRIETA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -251,7 +203,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -264,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -466,23 +418,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,10 +462,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -566,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B85B3CD-9592-DA3E-CE8C-DCB038BBC2E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD65479-9F80-F74E-9EE9-ECE000473654}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E733794-F846-46C7-A4F4-2A59C9FE1B48}">
-  <dimension ref="B2:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBBE09CC-6FCB-4E83-8A6A-967153362EF8}">
+  <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -929,7 +881,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -942,7 +894,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -987,7 +939,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1019,12 +971,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2689307</v>
+        <v>1206700</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1035,17 +987,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1072,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1095,10 +1047,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>104000</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>3000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1109,19 +1061,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>168000</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>4200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1132,13 +1084,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
         <v>56940</v>
@@ -1155,19 +1107,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>130000</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>3249990</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1178,13 +1130,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>56940</v>
@@ -1201,19 +1153,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>130000</v>
       </c>
       <c r="G21" s="18">
-        <v>3698190</v>
+        <v>3249990</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1224,19 +1176,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>130000</v>
+        <v>56940</v>
       </c>
       <c r="G22" s="18">
-        <v>3698190</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1247,19 +1199,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>18</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>130000</v>
       </c>
       <c r="G23" s="18">
-        <v>2900000</v>
+        <v>3249990</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1270,13 +1222,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F24" s="18">
         <v>56940</v>
@@ -1293,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>104000</v>
+        <v>130000</v>
       </c>
       <c r="G25" s="18">
-        <v>3000000</v>
+        <v>3249990</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1316,397 +1268,75 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
-        <v>220000</v>
+        <v>56940</v>
       </c>
       <c r="G26" s="18">
-        <v>1100000</v>
+        <v>1423500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="18">
+      <c r="C27" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="24">
         <v>130000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="24">
         <v>3249990</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="18">
-        <v>130000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>3249990</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="18">
-        <v>47667</v>
-      </c>
-      <c r="G29" s="18">
-        <v>3249990</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="16" t="s">
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="H32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="18">
-        <v>168000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>4200000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="18">
-        <v>134400</v>
-      </c>
-      <c r="G31" s="18">
-        <v>4200000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="18">
-        <v>130000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="18">
-        <v>130000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="18">
-        <v>130000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" s="18">
-        <v>130000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="18">
-        <v>117000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="18">
-        <v>116000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>2900000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="18">
-        <v>81200</v>
-      </c>
-      <c r="G38" s="18">
-        <v>2900000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="18">
-        <v>130000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>3249990</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="18">
-        <v>130000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>3249990</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" s="24">
-        <v>13000</v>
-      </c>
-      <c r="G41" s="24">
-        <v>3249990</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H32:J32"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
